--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -575,7 +575,7 @@
         <v>45951.89506944444</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45924</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45908.34037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46013.38466435186</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>45055</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45949.78539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>46037.39774305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45985.60052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45202.47229166667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45846.65744212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45855</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041.3671412037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>46045.60996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>45588.62069444444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45478.37068287037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45566</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44511</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>46029.59697916666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>46000.93822916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>46045.57248842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45649.48122685185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45726.42420138889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44266</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44609</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44264</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44881.63303240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44379</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44511</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44247</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44668.89833333333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44265.33305555556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44320</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44357.59518518519</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44713.41631944444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44841.65574074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44841</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44732</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44732.89972222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44278.63331018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44698.59915509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44698.58943287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44396</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44253</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44887.5738425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44785.59811342593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44785.59934027777</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>45447.614375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45236.61521990741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45770.86954861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>45579.57643518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>45664.46144675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45681.70396990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45681.7072337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45681.7166087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45527.32375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45546.36997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>45057.46729166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45769.59185185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44747</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>45404.4404050926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>45545</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45092.70679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>45749.35199074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45240</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>45326.73876157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45651.86974537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>45113</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45295</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44662.77332175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45404.44038194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45706</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45435.72424768518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45219</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45414.53782407408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45887</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45693.40930555556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45601.56956018518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45769.60106481481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45572.43674768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45806.39133101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45589.37105324074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45812</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45326.74480324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>45735.36532407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45897.36666666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45898.41145833334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45898.4143287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45898.42114583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45681.69211805556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45904.6405787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45904.64417824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45904.42144675926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45908.35057870371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45533.37692129629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45911.70527777778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45911</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45495.71056712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45826</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45911.70615740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45911</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45174.84822916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45826.67533564815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45912.40556712963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45912.40796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45672</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45917</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45916.48267361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45285</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45919.34008101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45345.44857638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45918.41756944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45751</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45922.56707175926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45680.39591435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45923.38214120371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45608</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45924.38699074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45671.66840277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>45733.54667824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45495.70825231481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45566.45429398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45348.55956018518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45931.37412037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45931.38627314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45931.58986111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45930.49263888889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45931.57208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45930.67282407408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45930.48280092593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45219.48548611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45219</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45840</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45919</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45840</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45670</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45670</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45342.56087962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45938.46777777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45938.46975694445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45937.55002314815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45845</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45929</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45924</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45940.3487962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45188.47653935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45608</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45941.37351851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45941.37846064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45846.39778935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45846.66884259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44669</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45846.67357638889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45846.33273148148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45846.66545138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45846.68407407407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45946.40530092592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45849</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45848.73045138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45478.41777777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44823.45168981481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44627</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44973.4645949074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45952.86512731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45572.59703703703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45867.55569444445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45867.54686342592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44321</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45957.37429398148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45954.3783912037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45873.67197916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45609.46230324074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45665.55768518519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45873</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45369.46217592592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44671</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45345.45414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45870</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45961</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>45961</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44887</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>45964.79503472222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>45404.39177083333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>45972.89208333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>45644</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45972.67065972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>45495.81412037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>45975.36987268519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44376</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>45273.60798611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45573.61174768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>46019.81944444445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45427.6833449074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>45979.47457175926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>45516.63170138889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>46024.56222222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>46024.60538194444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>46024.5670949074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>46024.57240740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>46024.4365625</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>46024.59197916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>46024.60009259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>46027.52238425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45594.25377314815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45733.62307870371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>46029.6206712963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>45574</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>46031.47527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>46031.66760416667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>46030.6665625</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>46031.68702546296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>46032.39976851852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>46032.41365740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45992.30768518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>45194.64077546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>46034.43663194445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44897</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>46032.41707175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45546.42988425926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45258</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>46037.71488425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>46036.44976851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45414.54059027778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>46038.59100694444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>46038.56959490741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>46038.58</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45643.34236111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45309.63329861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>46041.37744212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>45260</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44509.76625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45995.94155092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>46042.36956018519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>46042.42332175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45311</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44527</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45771.65960648148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45425.37940972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44811.36627314815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>46042</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45566.37476851852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45166</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45275</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>46044.954375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>46045.58430555555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>46045.60434027778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45608</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45531.58143518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45037.38356481482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>46048.46645833334</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>46048.43784722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>46048.37015046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>46048.64840277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>46048.59686342593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>46048.43288194444</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>46031</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45764.51827546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45749.66427083333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>46051.48131944444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>46050.71394675926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>46050.28173611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>46009.6719212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45964</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45628.52410879629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45964</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>46051.48701388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>46010.43115740741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45538.61</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>46010.63777777777</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45295</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>46055.56982638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>46052.66299768518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>46014.61262731482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45608</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45764.76855324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>46027</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45453.68108796296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>46027</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45313</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45572.58497685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45578.71738425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45174.84201388889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45546.3780787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>44512.75452546297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>45525.5819212963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>45085</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45660.68168981482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>45419.41003472222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45561.58697916667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45509.57237268519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>45560.39084490741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>45435.76391203704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>45224</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>45467.44922453703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44601</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>45573.60828703704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>45651.8659375</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45532.65449074074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44585</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45219</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45503.65226851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44494</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45370.55768518519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45593.66460648148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45260</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45244</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44868</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45692.55440972222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45695.34581018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45174</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45077</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45692.44940972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45478.38052083334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45744.9047337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44452.52619212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45048</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45404.43857638889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>45572.43608796296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45361</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>45572.43356481481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45572</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44428.37861111111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>45769.59975694444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45713.36719907408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>45566.43722222222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>45681.39009259259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45776.58692129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45534.3334375</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45461.48384259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45534.34255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45475.5928587963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45709.50834490741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45495.54474537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45097</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45565.76509259259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45789</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45785.94997685185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45453.67690972222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45694.86667824074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45791.48747685185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45793.55232638889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45022.65944444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45348.55574074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45646.55732638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -575,7 +575,7 @@
         <v>45951.89506944444</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45924</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45908.34037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46013.38466435186</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>45055</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45949.78539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>46037.39774305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45985.60052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45275</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45202.47229166667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45608</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45846.65744212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45855</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>46041.3671412037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>46045.60996527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>45588.62069444444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>44326</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>44559</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45478.37068287037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45566</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44511</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>46029.59697916666</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>46000.93822916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>46045.57248842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>45649.48122685185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>45726.42420138889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45572</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>44266</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>44609</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44264</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>44881.63303240741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>44396</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>44379</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>44511</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>44247</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44668.89833333333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>44549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44265.33305555556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44320</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>44867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>44357.59518518519</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>44713.41631944444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>44841.65574074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>44841</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>44476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>44778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>44732</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>44732.89972222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44278.63331018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44698.59915509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44698.58943287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44396</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44253</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>44887.5738425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44785.59811342593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44785.59934027777</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>45447.614375</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45236.61521990741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>45770.86954861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>45579.57643518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>45664.46144675926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>45681.70396990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>45681.7072337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>45681.7166087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45527.32375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>45546.36997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>45057.46729166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>45769.59185185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>44747</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>45404.4404050926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>45545</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>45092.70679398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>45749.35199074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>45240</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>45326.73876157407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45651.86974537037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44634</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>45113</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>45295</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>44662.77332175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>45222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>45404.44038194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>45706</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>45435.72424768518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45219</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>45414.53782407408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>45887</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>45693.40930555556</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>45601.56956018518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>45769.60106481481</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>45572.43674768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>45806.39133101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>45589.37105324074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>45812</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45326.74480324074</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>45735.36532407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>45897.36666666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         <v>45817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>45898.41145833334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>45898.4143287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>45898.42114583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>45027</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>45681.69211805556</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>45904.6405787037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>45904.64417824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>45904.42144675926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>45908</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>45908</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>45908.35057870371</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>45533.37692129629</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>45911.70527777778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>45911</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>45495.71056712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>45826</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>45911.70615740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>45911</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45174.84822916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45826.67533564815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45912.40556712963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>45912.40796296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45672</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45917</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45916.48267361111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45285</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>45919.34008101852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>45345.44857638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>45918.41756944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         <v>45751</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         <v>45922.56707175926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>45680.39591435185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45923.38214120371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45608</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>45924.38699074074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45671.66840277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>45733.54667824074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>45495.70825231481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>45566.45429398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>45348.55956018518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45931.37412037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45931.38627314815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45931.58986111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45930.49263888889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>45931.57208333333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>45930.67282407408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45930.48280092593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45219.48548611111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45219</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45840</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45919</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10674,7 +10674,7 @@
         <v>45840</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>45670</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>45670</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>45342.56087962963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>45938.46777777778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45938.46975694445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>45937.55002314815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>45845</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>45929</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>45924</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11254,7 +11254,7 @@
         <v>45940.3487962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
         <v>45188.47653935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>45608</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45941.37351851852</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45941.37846064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45574</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45846.39778935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45846.66884259259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>44669</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45846.67357638889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>45846.33273148148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>45846.66545138889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45846.68407407407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>45946.40530092592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>45849</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45848.73045138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45478.41777777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44823.45168981481</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44627</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44973.4645949074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>45952.86512731481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>45572.59703703703</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>45867.55569444445</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45867.54686342592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44321</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>45886</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         <v>45957.37429398148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44427</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>45954.3783912037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45873.67197916667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>45609.46230324074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>45665.55768518519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>45873</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>45369.46217592592</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44671</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>45345.45414351852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>45870</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>45961</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>45961</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44887</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>45964.79503472222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>45404.39177083333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>45972.89208333333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13745,7 +13745,7 @@
         <v>45644</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>45972.67065972222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>45495.81412037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>45975.36987268519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13973,7 +13973,7 @@
         <v>44376</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14030,7 +14030,7 @@
         <v>45273.60798611111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14087,7 +14087,7 @@
         <v>45573.61174768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14144,7 +14144,7 @@
         <v>46019.81944444445</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>45427.6833449074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14258,7 +14258,7 @@
         <v>45979.47457175926</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14315,7 +14315,7 @@
         <v>45516.63170138889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>46024.56222222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>46024.60538194444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>46024.5670949074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>46024.57240740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>46024.4365625</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>46024.59197916667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>46024.60009259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>46027.52238425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>45594.25377314815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>45733.62307870371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>46029.6206712963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>45574</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>46031.47527777778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>46031.66760416667</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>46030.6665625</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>46031.68702546296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>46032.39976851852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>46032.41365740741</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>45992.30768518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>45194.64077546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>46034.43663194445</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44897</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>46032.41707175926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15688,7 +15688,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15745,7 +15745,7 @@
         <v>45546.42988425926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>45258</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>46037.71488425926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>46036.44976851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>45414.54059027778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>46038.59100694444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>46038.56959490741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>46038.58</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45643.34236111111</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45309.63329861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>46041.37744212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>45260</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44509.76625</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>45995.94155092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>46042.36956018519</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>46042.42332175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>45311</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44527</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>45771.65960648148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>45425.37940972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44811.36627314815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>46031</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17004,7 +17004,7 @@
         <v>46042</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>45566.37476851852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17118,7 +17118,7 @@
         <v>45166</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45275</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>46044.954375</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>46045.58430555555</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>46045.60434027778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45608</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45531.58143518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45037.38356481482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>46048.46645833334</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>46048.43784722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>46048.37015046296</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>46048.64840277778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>46048.59686342593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>46048.43288194444</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>46031</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45764.51827546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>45749.66427083333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>46051.48131944444</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>46050.71394675926</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>46050.28173611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>46009.6719212963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45964</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45628.52410879629</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45964</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>46051.48701388889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>46010.43115740741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45538.61</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>46010.63777777777</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>45295</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         <v>46055.56982638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>44895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>46052.66299768518</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>46014.61262731482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45608</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19128,7 +19128,7 @@
         <v>45764.76855324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19185,7 +19185,7 @@
         <v>46027</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
         <v>45453.68108796296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>46027</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45313</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>45572.58497685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>45578.71738425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45174.84201388889</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45546.3780787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19646,7 +19646,7 @@
         <v>44512.75452546297</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>45525.5819212963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>45085</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19817,7 +19817,7 @@
         <v>45660.68168981482</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>45419.41003472222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45561.58697916667</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45509.57237268519</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>45560.39084490741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>45435.76391203704</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20159,7 +20159,7 @@
         <v>45224</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20216,7 +20216,7 @@
         <v>45467.44922453703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44601</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>45573.60828703704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>45651.8659375</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45532.65449074074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44585</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45219</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45503.65226851852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44494</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45370.55768518519</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45593.66460648148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45664</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45260</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45244</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>44868</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45692.55440972222</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45695.34581018519</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45174</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45077</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45692.44940972222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45478.38052083334</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45744.9047337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>44452.52619212963</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45048</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45404.43857638889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         <v>45572.43608796296</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>45361</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21884,7 +21884,7 @@
         <v>45572.43356481481</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
         <v>45572</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21998,7 +21998,7 @@
         <v>44428.37861111111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>45769.59975694444</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>45713.36719907408</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>45566.43722222222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         <v>45566</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22283,7 +22283,7 @@
         <v>45681.39009259259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22340,7 +22340,7 @@
         <v>45776.58692129629</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22397,7 +22397,7 @@
         <v>45534.3334375</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>45461.48384259259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>45534.34255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>45475.5928587963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22630,7 +22630,7 @@
         <v>45709.50834490741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22687,7 +22687,7 @@
         <v>44993</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22744,7 +22744,7 @@
         <v>45495.54474537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22801,7 +22801,7 @@
         <v>45097</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22858,7 +22858,7 @@
         <v>45565.76509259259</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45789</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45785.94997685185</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23029,7 +23029,7 @@
         <v>45453.67690972222</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         <v>45694.86667824074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23143,7 +23143,7 @@
         <v>45791.48747685185</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23200,7 +23200,7 @@
         <v>45793.55232638889</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>45022.65944444444</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45348.55574074074</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45646.55732638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -575,7 +575,7 @@
         <v>45951</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45924</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45908.34037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46013.38466435186</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>45055</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45949.78539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>46037.39774305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45985.60052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45275</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45202.47229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45608</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45846.65744212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45855</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45588.62069444444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>46045</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44559</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45478.37068287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>46000.93822916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>46045.57248842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>46029.59697916666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45649.48122685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45726.42420138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>45572</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44266</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44881.63303240741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44511</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44668.89833333333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>44549</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44265.33305555556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44320</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44867</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44357.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44713.41631944444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44341</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44396</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44841.65574074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44732.89972222222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>44278.63331018519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44698.59915509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44698.58943287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44396</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44253</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44887.5738425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44785.59811342593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44785.59934027777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45447.614375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45236.61521990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45664.46144675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45770.86954861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45579.57643518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45527.32375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45681.70396990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45681.7072337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45681.7166087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45057.46729166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45546.36997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45769.59185185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45404.4404050926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44747</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>45092.70679398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45240</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45749.35199074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>45113</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44662.77332175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45404.44038194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45706</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45435.72424768518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45326.73876157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45651.86974537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45219</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45414.53782407408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45693.40930555556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45601.56956018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45769.60106481481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45295</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45572.43674768518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45589.37105324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45326.74480324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45817</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45887</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44671</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45681.69211805556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>45826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45826.67533564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45533.37692129629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45897.36666666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>45495.71056712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45174.84822916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45672</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45898.41145833334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>45898.4143287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45898.42114583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>45285</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45345.44857638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45751</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45904.6405787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45904.64417824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>45680.39591435185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45904.42144675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>45608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45908</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>45908.35057870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>45840</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45911.70527777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45911</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45845</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45911.70615740741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45671.66840277778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45733.54667824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45912.40556712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45912.40796296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>45846.39778935185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45846.66884259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45495.70825231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45566.45429398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45348.55956018518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45846.67357638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45846.33273148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45846.66545138889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>45846.68407407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45917</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45916.48267361111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45849</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45848.73045138889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45219.48548611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45219</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45919.34008101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45918.41756944444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45922.56707175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45923.38214120371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45867.55569444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45867.54686342592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45670</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45342.56087962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45924.38699074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45886</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44427</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45873.67197916667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45873</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45188.47653935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45931.37412037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45931.38627314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45608</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45931.58986111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45930.49263888889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45345.45414351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45870</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45574</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45931.57208333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45930.67282407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45930.48280092593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>45478.41777777778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45919</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44823.45168981481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44973.4645949074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45572.59703703703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45938.46777777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45938.46975694445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45937.55002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44321</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45929</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45940.3487962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45495.81412037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45609.46230324074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45941.37351851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45941.37846064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45665.55768518519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45369.46217592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>44671</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45946.40530092592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44887</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45952.86512731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45957.37429398148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45954.3783912037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45404.39177083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45644</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45961</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45961</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44376</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45273.60798611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45573.61174768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45964.79503472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45427.6833449074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45516.63170138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45972.89208333333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45972.67065972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45594.25377314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45975.36987268519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45733.62307870371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45979.47457175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45574</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45194.64077546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44897</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45546.42988425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>46032.39976851852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45258</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>46032.41365740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45992.30768518519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>46034.43663194445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>46032.41707175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45414.54059027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45643.34236111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45309.63329861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45260</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>46037.71488425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>46036.44976851852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44509.76625</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>46038.59100694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>46038.56959490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>46038.58</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45311</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44527</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45771.65960648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45995.94155092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45425.37940972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44811.36627314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>46042.36956018519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>46042.42332175926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45566.37476851852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45166</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>46042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45275</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45608</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45531.58143518519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>46045.58430555555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>46045.60434027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>45037.38356481482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>46048.46645833334</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>46048.43784722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>46048.37015046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>46048.64840277778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>46048.59686342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>46048.43288194444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45764.51827546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45749.66427083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>45628.52410879629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>46051.48131944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45538.61</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>46050.71394675926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>46009.6719212963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>46051.48701388889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45295</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44895</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>46010.43115740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46010.63777777777</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45027</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>46055.56982638889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45764.76855324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>46052.66299768518</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>46014.61262731482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45453.68108796296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45313</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45572.58497685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45578.71738425926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45174.84201388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45546.3780787037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>46019.81944444445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>46041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>46050</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>44512.75452546297</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45525.5819212963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>46024.5670949074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>46024.57240740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45660.68168981482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>46069.43399305556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>46024.56222222222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46024.59197916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45419.41003472222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45561.58697916667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>46027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>46024.4365625</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>46024.60538194444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>46024.60009259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>46027</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45509.57237268519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>46027.52238425926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46048</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>46070.4134837963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45560.39084490741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45435.76391203704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>46029.6206712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>46031</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>46031</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>46073.47648148148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45467.44922453703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>46031.47527777778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>46031.66760416667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>46031.68702546296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>46073.48453703704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>46044</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>46044</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>46030.6665625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44601</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45573.60828703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45651.8659375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45532.65449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44585</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45219</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45503.65226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44494</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45370.55768518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45593.66460648148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>45664</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>45148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>45260</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>45244</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44868</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45692.55440972222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45695.34581018519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>45148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45174</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45077</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>45692.44940972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45478.38052083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>45744.9047337963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44452.52619212963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45404.43857638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45572.43608796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45361</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45572.43356481481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45572</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44428.37861111111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45769.59975694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45713.36719907408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45566.43722222222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45681.39009259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45776.58692129629</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45534.3334375</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45461.48384259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45534.34255787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45475.5928587963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45709.50834490741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45495.54474537037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45097</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45565.76509259259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45789</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45785.94997685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45453.67690972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45694.86667824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45791.48747685185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45793.55232638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45022.65944444444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45348.55574074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45646.55732638889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45806.39133101852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45812</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45735.36532407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -575,7 +575,7 @@
         <v>45951</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45924</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45908.34037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46013.38466435186</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>45055</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45949.78539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>46037.39774305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45985.60052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44379</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45275</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45202.47229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>45608</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45846.65744212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45855</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>45588.62069444444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>46045</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>44326</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>44559</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>45478.37068287037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>45566</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45869</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44511</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>46000.93822916667</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>46045.57248842593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>46029.59697916666</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>45649.48122685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>45726.42420138889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>45572</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44266</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44609</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>44445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44881.63303240741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44511</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>44668.89833333333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>44519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>44549</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44265.33305555556</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3939,7 +3939,7 @@
         <v>44320</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44867</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44357.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44713.41631944444</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>44341</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44396</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>44841.65574074074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>44841</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>44476</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>44778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>44732</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>44732.89972222222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>44865</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>44278.63331018519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44698.59915509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44698.58943287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44396</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44253</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44887.5738425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>44785.59811342593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>44785.59934027777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>45447.614375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>45236.61521990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45664.46144675926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>45770.86954861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         <v>45579.57643518518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>45527.32375</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>45681.70396990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>45681.7072337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>45681.7166087963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>45057.46729166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>45546.36997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>45769.59185185185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>45404.4404050926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44747</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>45545</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>45092.70679398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45240</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45749.35199074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>44634</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>45113</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>44662.77332175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45404.44038194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>45706</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45435.72424768518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45326.73876157407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>45651.86974537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>45219</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>45414.53782407408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>45693.40930555556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>45601.56956018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>45769.60106481481</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45295</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45572.43674768518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45589.37105324074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45326.74480324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>45817</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45887</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44671</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45027</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45681.69211805556</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>45826</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>45826.67533564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45533.37692129629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45897.36666666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>45495.71056712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>45174.84822916667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45672</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>45898.41145833334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>45898.4143287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
         <v>45898.42114583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>45285</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>45345.44857638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>45751</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>45904.6405787037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>45904.64417824074</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>45680.39591435185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>45904.42144675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>45608</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>45908</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45908</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>45840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>45908.35057870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>45840</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>45911.70527777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45911</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45845</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>45911.70615740741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>45671.66840277778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45733.54667824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9320,7 +9320,7 @@
         <v>45912.40556712963</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45912.40796296296</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>45846.39778935185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>45846.66884259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>45495.70825231481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
         <v>45566.45429398148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9662,7 +9662,7 @@
         <v>45348.55956018518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>45846.67357638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9776,7 +9776,7 @@
         <v>45846.33273148148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9833,7 +9833,7 @@
         <v>45846.66545138889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
         <v>45846.68407407407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         <v>45917</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10009,7 +10009,7 @@
         <v>45916.48267361111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         <v>45849</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>45848.73045138889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>45219.48548611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>45219</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>45919.34008101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>45918.41756944444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>45922.56707175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44627</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45923.38214120371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>45867.55569444445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45867.54686342592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>45670</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>45342.56087962963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>45924.38699074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>45886</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44427</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>45873.67197916667</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>45873</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45188.47653935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>45931.37412037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>45931.38627314815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>45608</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>45931.58986111111</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>45930.49263888889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>45345.45414351852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>45870</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11625,7 +11625,7 @@
         <v>45574</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>45931.57208333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>45930.67282407408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>45930.48280092593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>44669</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>45478.41777777778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>45919</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44823.45168981481</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44973.4645949074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>45572.59703703703</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>45938.46777777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12267,7 +12267,7 @@
         <v>45938.46975694445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>45937.55002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44321</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45929</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>45924</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45940.3487962963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45495.81412037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45609.46230324074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45941.37351851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45941.37846064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45665.55768518519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45369.46217592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>44671</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45946.40530092592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13080,7 +13080,7 @@
         <v>44887</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45952.86512731481</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45957.37429398148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45954.3783912037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>45404.39177083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45644</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45961</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45961</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44376</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45273.60798611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45573.61174768519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45964.79503472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45427.6833449074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45516.63170138889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45972.89208333333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45972.67065972222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45594.25377314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45975.36987268519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>45733.62307870371</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45979.47457175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45574</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45194.64077546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44897</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45546.42988425926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>46032.39976851852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45258</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>46032.41365740741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45992.30768518519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>46034.43663194445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>46032.41707175926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45414.54059027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>45643.34236111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>45309.63329861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>45260</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>46037.71488425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15147,7 +15147,7 @@
         <v>46036.44976851852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44509.76625</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>46038.59100694444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>46038.56959490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>46038.58</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45311</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>44527</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>45771.65960648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>45995.94155092593</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>45425.37940972222</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44811.36627314815</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>46042.36956018519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>46042.42332175926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>45566.37476851852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>45166</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16007,7 +16007,7 @@
         <v>46042</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>45275</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16121,7 +16121,7 @@
         <v>45608</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16178,7 +16178,7 @@
         <v>45531.58143518519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16235,7 +16235,7 @@
         <v>46045.58430555555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16292,7 +16292,7 @@
         <v>46045.60434027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16349,7 +16349,7 @@
         <v>45037.38356481482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16406,7 +16406,7 @@
         <v>46048.46645833334</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>46048.43784722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>46048.37015046296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>46048.64840277778</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>46048.59686342593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>46048.43288194444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>45764.51827546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>45749.66427083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>45628.52410879629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>46051.48131944444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>45538.61</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>46050.71394675926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>46009.6719212963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17157,7 +17157,7 @@
         <v>45964</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>45964</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>46051.48701388889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>45295</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17385,7 +17385,7 @@
         <v>44895</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>46010.43115740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>46010.63777777777</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>45027</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>45608</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>46055.56982638889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>45764.76855324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>46052.66299768518</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>46014.61262731482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>45453.68108796296</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17955,7 +17955,7 @@
         <v>45313</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45572.58497685185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>45578.71738425926</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45174.84201388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18183,7 +18183,7 @@
         <v>45546.3780787037</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>46019.81944444445</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18302,7 +18302,7 @@
         <v>46041</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18359,7 +18359,7 @@
         <v>46050</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>44512.75452546297</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45525.5819212963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>45085</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>46024.5670949074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>46024.57240740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>45660.68168981482</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>46069.43399305556</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>46024.56222222222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
         <v>46024.59197916667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18929,7 +18929,7 @@
         <v>45419.41003472222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18986,7 +18986,7 @@
         <v>45561.58697916667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>46027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>46024.4365625</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>46024.60538194444</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         <v>46024.60009259259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19271,7 +19271,7 @@
         <v>46027</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19328,7 +19328,7 @@
         <v>45509.57237268519</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19385,7 +19385,7 @@
         <v>46027.52238425926</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>46048</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>46070.4134837963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45560.39084490741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45435.76391203704</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45224</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>46029.6206712963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>46031</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>46031</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>46073.47648148148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>45467.44922453703</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>46031.47527777778</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>46031.66760416667</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>46031.68702546296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>46073.48453703704</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>46044</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20312,7 +20312,7 @@
         <v>46044</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20369,7 +20369,7 @@
         <v>46030.6665625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>44601</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>45573.60828703704</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45651.8659375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45532.65449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>44585</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45219</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45503.65226851852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>44494</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45370.55768518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45593.66460648148</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21006,7 +21006,7 @@
         <v>45664</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>45148</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>45260</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21177,7 +21177,7 @@
         <v>45244</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21234,7 +21234,7 @@
         <v>44868</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21291,7 +21291,7 @@
         <v>45692.55440972222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>45695.34581018519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21405,7 +21405,7 @@
         <v>45148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21462,7 +21462,7 @@
         <v>45174</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45077</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>45692.44940972222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45478.38052083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>45744.9047337963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44452.52619212963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45048</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45404.43857638889</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45572.43608796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45361</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45572.43356481481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45572</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>44428.37861111111</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>45769.59975694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45713.36719907408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45566.43722222222</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45566</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45681.39009259259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45776.58692129629</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45534.3334375</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22607,7 +22607,7 @@
         <v>45461.48384259259</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22664,7 +22664,7 @@
         <v>45534.34255787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22721,7 +22721,7 @@
         <v>45475.5928587963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
         <v>45709.50834490741</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22835,7 +22835,7 @@
         <v>44993</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         <v>45495.54474537037</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22949,7 +22949,7 @@
         <v>45097</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23006,7 +23006,7 @@
         <v>45565.76509259259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>45789</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23120,7 +23120,7 @@
         <v>45785.94997685185</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>45453.67690972222</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>45694.86667824074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>45791.48747685185</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>45793.55232638889</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23410,7 +23410,7 @@
         <v>45022.65944444444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45348.55574074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45646.55732638889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45806.39133101852</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45812</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45735.36532407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -575,7 +575,7 @@
         <v>45951</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>45924</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45908.34037037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>46013.38466435186</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>45055</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45742</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>45949.78539351852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>46037.39774305555</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45985.60052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>46077.39568287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>44379</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>45202.47229166667</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45588.62069444444</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45846.65744212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45275</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>45855</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
         <v>46045</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>46041</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>45608</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         <v>44559</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45478.37068287037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44511</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>45572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>45649.48122685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>45869</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45726.42420138889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>46000.93822916667</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3224,7 +3224,7 @@
         <v>46045.57248842593</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>46029.59697916666</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>44266</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>44609</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>44445</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44264</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44881.63303240741</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44396</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44511</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44668.89833333333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>44519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>44549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44265.33305555556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44320</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44357.59518518519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44713.41631944444</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44341</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44396</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44841.65574074074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44841</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44476</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44732</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44732.89972222222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         <v>44278.63331018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>44698.59915509259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>44698.58943287037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>44396</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>44887.5738425926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>44785.59811342593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
         <v>44785.59934027777</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>45749.66427083333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>44811.36627314815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>45414.54059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>45572.43674768518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>45342.56087962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>45467.44922453703</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
         <v>45419.41003472222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         <v>45744.9047337963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>45092.70679398148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5780,7 +5780,7 @@
         <v>45532.65449074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45546.36997685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>44376</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45516.63170138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6023,7 +6023,7 @@
         <v>44823.45168981481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45509.57237268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45589.37105324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45531.58143518519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>45414.53782407408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>45545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>45806.39133101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>45188.47653935185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>45435.76391203704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>45887</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>45495.81412037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>45671.66840277778</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>45812</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>44428.37861111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>45566.45429398148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>44973.4645949074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>45572.43356481481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45572</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>45735.36532407408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>45692.44940972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>45817</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>45651.8659375</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>45573.60828703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>44671</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>45546.3780787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>45566.43722222222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>45566</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>45826</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>45897.36666666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>45826.67533564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>45174</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>45898.4143287037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>45898.42114583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>45898.41145833334</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>45693.40930555556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>45222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>45769.59975694444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>45904.6405787037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>45904.64417824074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>45904.42144675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44662.77332175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>45908</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>45608</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         <v>45908</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         <v>45908.35057870371</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8623,7 +8623,7 @@
         <v>44895</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>45295</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8737,7 +8737,7 @@
         <v>45840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
         <v>45348.55956018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>45840</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>45609.46230324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>45608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>45313</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>44494</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>45027</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45601.56956018518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45911.70615740741</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         <v>45846.66545138889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9364,7 +9364,7 @@
         <v>45643.34236111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>45846.39778935185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>45846.33273148148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>45846.66884259259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         <v>45846.68407407407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>45846.67357638889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         <v>45845</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         <v>45911.70527777778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         <v>45911</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         <v>45912.40556712963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         <v>45912.40796296296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         <v>45848.73045138889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>45911</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>45849</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>45435.72424768518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>44321</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         <v>45495.71056712963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         <v>45916.48267361111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         <v>44627</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         <v>45918.41756944444</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>45917</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>45644</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         <v>45922.56707175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>45919.34008101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45867.55569444445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>45867.54686342592</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         <v>45923.38214120371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>45924.38699074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         <v>44427</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>45886</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>45870</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>45930.67282407408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         <v>45345.45414351852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11275,7 +11275,7 @@
         <v>45930.48280092593</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>45873</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>45930.49263888889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>45873.67197916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>45931.58986111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>45931.57208333333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>45931.38627314815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>45651.86974537037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>45692.55440972222</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>45174.84201388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>45931.37412037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         <v>45113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>45224</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>45660.68168981482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>45919</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>45695.34581018519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45681.69211805556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         <v>45273.60798611111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12316,7 +12316,7 @@
         <v>45938.46777777778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>45937.55002314815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>45938.46975694445</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>45751</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>45681.70396990741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45681.7072337963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45769.59185185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45174.84822916667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45940.3487962963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45929</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         <v>45941.37351851852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>45941.37846064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45924</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>45572.58497685185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>45946.40530092592</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>45345.44857638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>45771.65960648148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13295,7 +13295,7 @@
         <v>45954.3783912037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13352,7 +13352,7 @@
         <v>45952.86512731481</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>45957.37429398148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>45579.57643518518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45961</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45561.58697916667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>45961</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>45964.79503472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45608</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45478.38052083334</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>45478.41777777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45425.37940972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>45326.74480324074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45447.614375</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45972.67065972222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45972.89208333333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45975.36987268519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45574</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45566.37476851852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45593.66460648148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>45979.47457175926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44527</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45404.43857638889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45085</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45527.32375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45572.59703703703</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>44509.76625</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45573.61174768519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45370.55768518519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45574</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45670</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45670</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45665.55768518519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45275</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45628.52410879629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45992.30768518519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45048</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>45995.94155092593</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>46042</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>45427.6833449074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>46042.42332175926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>45572.43608796296</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>44585</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>45027</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>46042.36956018519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>45404.44038194444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>44669</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>45770.86954861111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16108,7 +16108,7 @@
         <v>46045.60434027778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16165,7 +16165,7 @@
         <v>46048.43784722222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16222,7 +16222,7 @@
         <v>46048.46645833334</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>46048.64840277778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16336,7 +16336,7 @@
         <v>46048.59686342593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>46045.58430555555</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>46048.37015046296</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>46048.43288194444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45037.38356481482</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>46050.71394675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45681.7166087963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45166</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16797,7 +16797,7 @@
         <v>46009.6719212963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>46052.66299768518</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16916,7 +16916,7 @@
         <v>46010.63777777777</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16973,7 +16973,7 @@
         <v>45219</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>46051.48131944444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45964</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>46010.43115740741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45749.35199074074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>46051.48701388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>45964</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>45764.51827546296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>46055.56982638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>45194.64077546296</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45219.48548611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>46014.61262731482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>46050</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45713.36719907408</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45260</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>46019.81944444445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>46041</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45309.63329861111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>45769.60106481481</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>46024.60009259259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>45260</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45258</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>46024.5670949074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45285</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>46024.4365625</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>44452.52619212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>46024.57240740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>46024.56222222222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>46024.59197916667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>46024.60538194444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>46027</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45326.73876157407</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>46027</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>46069.43399305556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>46048</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>46027.52238425926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>46070.4134837963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>45733.54667824074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>45733.62307870371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>46044</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>46029.6206712963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>45594.25377314815</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45219</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>46030.6665625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>46031.66760416667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>46031.68702546296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>46031</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>46032.39976851852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>46032.41365740741</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>46076.6580787037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>46031.47527777778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>46076.66283564815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45503.65226851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>46031</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45764.76855324074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>46032.41707175926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>46073.47648148148</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>46034.43663194445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45404.4404050926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45560.39084490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45495.70825231481</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>46036.44976851852</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>46036.67758101852</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>46080.55461805555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>46044</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>46078</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>44512.75452546297</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>46037.71488425926</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>46038.59100694444</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>46076</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>46080.6662037037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>46073</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>46038.56959490741</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>46038.58</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>44671</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>46080.55856481481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45404.39177083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>44601</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45236.61521990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45057.46729166667</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45311</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44868</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45453.68108796296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>45681.39009259259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>45525.5819212963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>45608</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>44887</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>45295</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44634</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>45578.71738425926</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>45664</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45538.61</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>45533.37692129629</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>45369.46217592592</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>45240</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45706</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>45361</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44897</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>45219</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>45148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>45077</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>45680.39591435185</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>44747</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>45546.42988425926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
         <v>45244</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
         <v>45672</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>45664.46144675926</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>45776.58692129629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23154,7 +23154,7 @@
         <v>45461.48384259259</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45534.3334375</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45534.34255787037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23330,7 +23330,7 @@
         <v>45709.50834490741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23387,7 +23387,7 @@
         <v>45475.5928587963</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23444,7 +23444,7 @@
         <v>45565.76509259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45495.54474537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>44993</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45097</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45453.67690972222</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23729,7 +23729,7 @@
         <v>45785.94997685185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45789</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23843,7 +23843,7 @@
         <v>45694.86667824074</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>45022.65944444444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>45791.48747685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45793.55232638889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>45348.55574074074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45646.55732638889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
